--- a/账号及密码/taiyi各种正式服和测试服.xlsx
+++ b/账号及密码/taiyi各种正式服和测试服.xlsx
@@ -14,12 +14,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>小七云服</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>119.3.67.4:13306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120.92.217.199</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dev_yilin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>119.3.69.133</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120.92.216.59：13306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taiyi_manager，admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">taiyi_manager_2017，JEjfp2@#2adiw
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.101.23.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_db_read</t>
+  </si>
+  <si>
+    <t>ty_db_read1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.163.254.243</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>公共2数据库地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8K1cd1Pjvg=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>lizhenhua</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -28,7 +115,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ip</t>
+    <t>4JdJ8C7ab/qpqEFZ0vvLC</t>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120.92.216.59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111.231.70.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.101.186.119</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>119.3.102.10 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -36,35 +146,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>119.3.67.4:13306</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云服</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>111.231.70.40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>120.92.217.199</t>
+    <t>安卓测试服,ios_审核服（ty_ios_shenhe,ty_c_ios_shenhe,taiyi_ios_s0,taiyi_game_s0,taiyi_c_ios_s0,taiyi_cross_s0）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用宝审核服,跨服</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -72,19 +158,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>应用宝审核服,跨服</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_dev_read</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3E5GC^RSdFePkhHT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安卓测试服,ios_审核服（ty_ios_shenhe,ty_c_ios_shenhe,taiyi_ios_s0,taiyi_game_s0,taiyi_c_ios_s0,taiyi_cross_s0）</t>
+    <t>bt魔仙正式服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -92,12 +170,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>119.3.69.133</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>120.92.216.59</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t xml:space="preserve"> lizh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小七云服2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h0m7j3ySbdEkE3h6aSfC</t>
   </si>
 </sst>
 </file>
@@ -473,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -494,107 +583,185 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="102" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="H6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="102" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
+    <row r="7" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="1">
+        <v>123456</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
+      <c r="J7" s="1">
+        <v>123456</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
+    <row r="8" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" ht="48" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="18" ht="48" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="19" ht="48" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -634,6 +801,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>